--- a/biology/Médecine/Association_nationale_des_étudiants_en_médecine_de_France/Association_nationale_des_étudiants_en_médecine_de_France.xlsx
+++ b/biology/Médecine/Association_nationale_des_étudiants_en_médecine_de_France/Association_nationale_des_étudiants_en_médecine_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association nationale des étudiants en médecine de France (ANEMF) est une association loi de 1901 dont l'objet est de travailler pour l'intérêt commun des étudiants en médecine.
-Membre de la Fédération des associations générales étudiantes et de la Fédération internationale des associations d'étudiants en médecine, elle fut créée en 1965[1] et se présente comme « indépendante de tout parti politique, syndicat et religion »[1]. Elle réunit 37 associations locales[1] représentatives (qui administrent l’ANEMF, votent les motions en Conseil d’Administration) et plusieurs dizaines d’associations de santé publique, tutorat ou solidarité internationale auxquelles adhérent des étudiants en médecine (en première année de santé pour les tutorats) de métropole et d'outre-mer. L’ANEMF est ainsi représentative des 37 unités de formation et de recherche et des 94 000 étudiants en médecine de la première année à la sixième année qui y sont rattachés.
+Membre de la Fédération des associations générales étudiantes et de la Fédération internationale des associations d'étudiants en médecine, elle fut créée en 1965 et se présente comme « indépendante de tout parti politique, syndicat et religion ». Elle réunit 37 associations locales représentatives (qui administrent l’ANEMF, votent les motions en Conseil d’Administration) et plusieurs dizaines d’associations de santé publique, tutorat ou solidarité internationale auxquelles adhérent des étudiants en médecine (en première année de santé pour les tutorats) de métropole et d'outre-mer. L’ANEMF est ainsi représentative des 37 unités de formation et de recherche et des 94 000 étudiants en médecine de la première année à la sixième année qui y sont rattachés.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Veiller à la défense des droits et intérêts moraux, tant collectifs qu’individuels, des étudiants en médecine et de les représenter ;
 Concourir à ce que les études médicales assurent une bonne formation des étudiants en médecine et de faciliter par tous les moyens possibles l’instruction professionnelle des jeunes et futurs médecins ;
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,13 +583,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Santé publique
-Pour le Téléthon en 2010, l'ANEMF a présenté sur le plateau de France 2, un don de 128 000 €. Cette collecte a été perçue à travers différentes actions locales menées dans les villes des 37 UFR de médecine de France. Cette opération est renouvelée tous les ans et orchestrées par le pôle Santé globale et solidarité de l’ANEMF[2].
-L'ANEMF participe aux don du sang et don de plaquettes (en collaboration avec l'association Laurette Fugain)[3].
-L'ANEMF organise l'Hôpital des nounours, événement national réalisé pour la première fois en 2004 dans six UFR de France mais repris depuis par la majorité des villes. Il s'agit d'une action visant à diminuer l'appréhension des enfants face aux blouses blanches. Cette action touche les enfants de 3 à 6 ans[4].
-Tutorats d'Entrée dans les Etudes de Santé
-Les premiers Tutorats Santé pour accompagner les étudiantes et étudiants en 1ère année d'études de santé ont été fondés par des étudiants en médecine. 
-Aujourd'hui, la coordination des Tutorats Santé se fait avec les 5 fédérations de filières MMOPK (Maïeutique, Médecine, Odontologie, Pharmacie et Kinésithérapie). Des Tutorats Santé continuent d'adhérer à l'ANEMF .
+          <t>Santé publique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le Téléthon en 2010, l'ANEMF a présenté sur le plateau de France 2, un don de 128 000 €. Cette collecte a été perçue à travers différentes actions locales menées dans les villes des 37 UFR de médecine de France. Cette opération est renouvelée tous les ans et orchestrées par le pôle Santé globale et solidarité de l’ANEMF.
+L'ANEMF participe aux don du sang et don de plaquettes (en collaboration avec l'association Laurette Fugain).
+L'ANEMF organise l'Hôpital des nounours, événement national réalisé pour la première fois en 2004 dans six UFR de France mais repris depuis par la majorité des villes. Il s'agit d'une action visant à diminuer l'appréhension des enfants face aux blouses blanches. Cette action touche les enfants de 3 à 6 ans.
 </t>
         </is>
       </c>
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,12 +617,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fonctionnement interne</t>
+          <t>Actions de l'association</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L’ANEMF fonctionne selon un système de représentation ascendante[5] : les étudiants de chaque ville sont représentés au local par leur administrateur de la corpo médecine représentative et leur administrateur élu UFR. Tous deux sont régulièrement élus et chargés de recueillir les informations du local, sonder les étudiants sur les positions à adopter et les porter à l'échelle nationale. Les administrateurs siègent à l’ANEMF en tant que représentants de leur ville lors des Assemblées Générales et Conseils d’Administration pour porter la voix de leurs étudiants respectifs. Les associations adhérentes administrent également sur les décisions internes à la structure. Ils mandatent par ce biais le Bureau National pour les représenter au niveau de la FAGE, de l’IFMSA, des différentes instances et interlocuteurs nationaux. Le Bureau National est tenu de s'en tenir strictement aux directives des administrateurs.
+          <t>Tutorats d'Entrée dans les Etudes de Santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premiers Tutorats Santé pour accompagner les étudiantes et étudiants en 1ère année d'études de santé ont été fondés par des étudiants en médecine. 
+Aujourd'hui, la coordination des Tutorats Santé se fait avec les 5 fédérations de filières MMOPK (Maïeutique, Médecine, Odontologie, Pharmacie et Kinésithérapie). Des Tutorats Santé continuent d'adhérer à l'ANEMF .
 </t>
         </is>
       </c>
@@ -617,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,10 +655,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fonctionnement interne</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ANEMF fonctionne selon un système de représentation ascendante : les étudiants de chaque ville sont représentés au local par leur administrateur de la corpo médecine représentative et leur administrateur élu UFR. Tous deux sont régulièrement élus et chargés de recueillir les informations du local, sonder les étudiants sur les positions à adopter et les porter à l'échelle nationale. Les administrateurs siègent à l’ANEMF en tant que représentants de leur ville lors des Assemblées Générales et Conseils d’Administration pour porter la voix de leurs étudiants respectifs. Les associations adhérentes administrent également sur les décisions internes à la structure. Ils mandatent par ce biais le Bureau National pour les représenter au niveau de la FAGE, de l’IFMSA, des différentes instances et interlocuteurs nationaux. Le Bureau National est tenu de s'en tenir strictement aux directives des administrateurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Association_nationale_des_étudiants_en_médecine_de_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_nationale_des_%C3%A9tudiants_en_m%C3%A9decine_de_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Ingrid Bastide et Nabil Dib, Carabook : Le guide de l'externe, ANEMF, 2011
 Dominique Pateron, Patrice Queneau, Ingrid Bastide et Nabil Dib, Guides des urgences médico-chirurgicales, ANEMF et APNET, 2011
